--- a/$DIS.xlsx
+++ b/$DIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9D2A5-C800-4F67-BC1E-EB5A609E3A5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4721A5-65B6-4D30-872E-638F431AEFED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28470" windowHeight="11790" activeTab="1" xr2:uid="{68F08805-3E32-4D59-AFE0-F76FFCC3E2AC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="167">
   <si>
     <t>$DIS</t>
   </si>
@@ -464,6 +464,69 @@
   </si>
   <si>
     <t>Other LT Liabilities</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>NI Continuing Operations</t>
+  </si>
+  <si>
+    <t>Net Loss on Investments</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Cash Distributions from Equity Investees</t>
+  </si>
+  <si>
+    <t>Net Change in Produced&amp;Licensed Content</t>
+  </si>
+  <si>
+    <t>Equity-Based Compensation</t>
+  </si>
+  <si>
+    <t>Pension &amp; Retirement Benefit</t>
+  </si>
+  <si>
+    <t>Other, Net</t>
+  </si>
+  <si>
+    <t>Changes in A/L</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Investments in Park, Resorts &amp; Property</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Commercial Paper Payments</t>
+  </si>
+  <si>
+    <t>Reduction of Borrowings</t>
+  </si>
+  <si>
+    <t>Proceeds from Excise of Stock Options</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -474,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="171" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +606,13 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -666,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,6 +857,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1171,7 +1242,7 @@
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1381,10 @@
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <f>'Financial Model'!M82</f>
+        <v>12959</v>
+      </c>
       <c r="D9" s="27" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>Q422</v>
@@ -1338,7 +1412,10 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23">
+        <f>'Financial Model'!M83</f>
+        <v>51602</v>
+      </c>
       <c r="D10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Q422</v>
@@ -1368,7 +1445,7 @@
       </c>
       <c r="C11" s="23">
         <f>C9-C10</f>
-        <v>0</v>
+        <v>-38643</v>
       </c>
       <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1405,7 +1482,7 @@
       </c>
       <c r="C12" s="24">
         <f>C8-C11</f>
-        <v>175988.6</v>
+        <v>214631.6</v>
       </c>
       <c r="D12" s="28"/>
       <c r="G12" s="19"/>
@@ -2049,19 +2126,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127E65B-837E-4D3E-95A6-ED4E4D8D43F0}">
-  <dimension ref="B1:AS95"/>
+  <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2442,15 +2519,15 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="43">
         <f>I24+I25</f>
         <v>918</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="43">
         <f>M24+M25</f>
         <v>1409</v>
       </c>
@@ -2546,6 +2623,19 @@
         <v>2.8692336309523808E-2</v>
       </c>
     </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="45">
+        <f>I24+I15+I14</f>
+        <v>2424</v>
+      </c>
+      <c r="M39" s="45">
+        <f>M24+M15+M14</f>
+        <v>2834</v>
+      </c>
+    </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="49" t="s">
         <v>105</v>
@@ -2814,7 +2904,7 @@
         <v>52.897970378496986</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="40" t="s">
         <v>7</v>
       </c>
@@ -2823,7 +2913,7 @@
         <v>12959</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="40" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2922,7 @@
         <v>51602</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
@@ -2841,7 +2931,7 @@
         <v>-38643</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>141</v>
       </c>
@@ -2858,7 +2948,7 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="87" spans="2:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="45" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2957,7 @@
         <v>175263.22</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="45" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2966,11 @@
         <v>213906.22</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="56">
+        <f>AVERAGE(C90:N90)</f>
+        <v>1.8174610351228313</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>20</v>
       </c>
@@ -2885,29 +2979,230 @@
         <v>1.8174610351228313</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="56"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="56"/>
       <c r="B92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="56"/>
       <c r="B93" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="56"/>
       <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="56"/>
       <c r="B95" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B99" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="M100" s="45">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M101" s="43">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="M102" s="45">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="M103" s="45">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="M104" s="45">
+        <v>-674</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="M105" s="45">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="M106" s="45">
+        <v>-4306</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="M107" s="45">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="M108" s="45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="M109" s="45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="M110" s="45">
+        <f>-506-259-684-892+15</f>
+        <v>-2326</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M111" s="43">
+        <f>SUM(M100:M110)</f>
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M113" s="45">
+        <v>-3795</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="M114" s="45">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="M115" s="43">
+        <f>M113+M114</f>
+        <v>-3872</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="M117" s="45">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="M118" s="45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M119" s="1">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M120" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M121" s="1">
+        <v>-824</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M122" s="43">
+        <f>SUM(M117:M121)</f>
+        <v>-2247</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M125" s="45">
+        <f>(M16-M21)+M115</f>
+        <v>-2099</v>
       </c>
     </row>
   </sheetData>
